--- a/data/dataHelpers/TableBuilderHelper.xlsx
+++ b/data/dataHelpers/TableBuilderHelper.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikec/Desktop/nbaDatabase/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djlisko01/Desktop/GitRepo/nbaDatabaseMongoDB/data/dataHelpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083BC29-1199-184C-A573-23834F6EFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7DDC50-8949-7E44-B62D-596376276A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34620" yWindow="2200" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Players" sheetId="3" r:id="rId2"/>
-    <sheet name="Positions" sheetId="2" r:id="rId3"/>
-    <sheet name="Games" sheetId="4" r:id="rId4"/>
+    <sheet name="EmployessJSON" sheetId="5" r:id="rId2"/>
+    <sheet name="Players" sheetId="3" r:id="rId3"/>
+    <sheet name="Positions" sheetId="2" r:id="rId4"/>
+    <sheet name="Games" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Employees!$M$1:$M$420</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8144" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8305" uniqueCount="1367">
   <si>
     <t>employeeID</t>
   </si>
@@ -3970,6 +3971,174 @@
   </si>
   <si>
     <t>Sun, Apr 10, 2022</t>
+  </si>
+  <si>
+    <t>Object ID</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooklyn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philadelphia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toronto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Illnois</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Indianopolis</t>
+  </si>
+  <si>
+    <t>Tenesse</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Louisianna</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>Washing D.C.</t>
+  </si>
+  <si>
+    <t>teanName</t>
   </si>
 </sst>
 </file>
@@ -4474,7 +4643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -4487,6 +4656,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4845,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21887,6 +22062,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64AD4B-6E6B-1E4F-944A-0FDB74ED3182}">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>23592</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>28346</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27067</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23892</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28441</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="O6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>28924</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="O7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>26746</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25934</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20927</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24012</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>26665</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21850</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>28248</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O14" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>26836</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O15" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30937</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O16" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>25873</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O17" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25421</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O18" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25513</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="O19" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>29795</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O20" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>21202</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="O21" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>31271</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O22" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>28769</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O23" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22567</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1334</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O24" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26214</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O25" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>28028</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O26" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
+        <v>29308</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O27" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>17926</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O28" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24677</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O29" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1">
+        <v>24410</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="O30" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1">
+        <v>27657</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O31" s="7">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DBAC14-FB24-FC45-A68C-6408F58216DF}">
   <dimension ref="A1:G389"/>
   <sheetViews>
@@ -30851,7 +32131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB5ECA-8321-184D-889C-B70C94B158D5}">
   <dimension ref="A1:M389"/>
   <sheetViews>
@@ -42994,12 +44274,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF07BE5-1BC4-AE46-BE66-4D50F30AE12E}">
   <dimension ref="A1:N1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M2" sqref="M2:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43126,7 +44406,7 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">IF(F3&lt;D3,H3,G3)</f>
+        <f t="shared" ref="J3:J41" si="3">IF(F3&lt;D3,H3,G3)</f>
         <v>13</v>
       </c>
       <c r="M3" s="5" t="s">
